--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.485012999999999</v>
+        <v>4.055275000000001</v>
       </c>
       <c r="H2">
-        <v>16.455039</v>
+        <v>12.165825</v>
       </c>
       <c r="I2">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="J2">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2315733333333333</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N2">
-        <v>0.69472</v>
+        <v>0.343144</v>
       </c>
       <c r="O2">
-        <v>0.2371078251520917</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P2">
-        <v>0.2371078251520917</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q2">
-        <v>1.270182743786666</v>
+        <v>0.4638477615333335</v>
       </c>
       <c r="R2">
-        <v>11.43164469408</v>
+        <v>4.174629853800001</v>
       </c>
       <c r="S2">
-        <v>0.06440493619306087</v>
+        <v>0.02498300759508081</v>
       </c>
       <c r="T2">
-        <v>0.06440493619306087</v>
+        <v>0.0249830075950808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.485012999999999</v>
+        <v>4.055275000000001</v>
       </c>
       <c r="H3">
-        <v>16.455039</v>
+        <v>12.165825</v>
       </c>
       <c r="I3">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="J3">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.160286</v>
       </c>
       <c r="O3">
-        <v>0.7373052671097876</v>
+        <v>0.8077233554817153</v>
       </c>
       <c r="P3">
-        <v>0.7373052671097876</v>
+        <v>0.8077233554817151</v>
       </c>
       <c r="Q3">
-        <v>3.949732264572667</v>
+        <v>2.920184602883334</v>
       </c>
       <c r="R3">
-        <v>35.547590381154</v>
+        <v>26.28166142595001</v>
       </c>
       <c r="S3">
-        <v>0.2002721700667358</v>
+        <v>0.1572821950713017</v>
       </c>
       <c r="T3">
-        <v>0.2002721700667358</v>
+        <v>0.1572821950713016</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.485012999999999</v>
+        <v>4.055275000000001</v>
       </c>
       <c r="H4">
-        <v>16.455039</v>
+        <v>12.165825</v>
       </c>
       <c r="I4">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="J4">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02498966666666667</v>
+        <v>0.03357866666666667</v>
       </c>
       <c r="N4">
-        <v>0.07496900000000001</v>
+        <v>0.100736</v>
       </c>
       <c r="O4">
-        <v>0.02558690773812063</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="P4">
-        <v>0.02558690773812063</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="Q4">
-        <v>0.1370686465323333</v>
+        <v>0.1361707274666667</v>
       </c>
       <c r="R4">
-        <v>1.233617818791</v>
+        <v>1.2255365472</v>
       </c>
       <c r="S4">
-        <v>0.006950100272710705</v>
+        <v>0.007334204453809654</v>
       </c>
       <c r="T4">
-        <v>0.006950100272710705</v>
+        <v>0.007334204453809653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.542812333333334</v>
+        <v>4.055275000000001</v>
       </c>
       <c r="H5">
-        <v>19.628437</v>
+        <v>12.165825</v>
       </c>
       <c r="I5">
-        <v>0.3240112351547335</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="J5">
-        <v>0.3240112351547335</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2315733333333333</v>
+        <v>0.023457</v>
       </c>
       <c r="N5">
-        <v>0.69472</v>
+        <v>0.070371</v>
       </c>
       <c r="O5">
-        <v>0.2371078251520917</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="P5">
-        <v>0.2371078251520917</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="Q5">
-        <v>1.515140861404445</v>
+        <v>0.09512458567500003</v>
       </c>
       <c r="R5">
-        <v>13.63626775264</v>
+        <v>0.8561212710750001</v>
       </c>
       <c r="S5">
-        <v>0.07682559929238182</v>
+        <v>0.005123444464928518</v>
       </c>
       <c r="T5">
-        <v>0.07682559929238182</v>
+        <v>0.005123444464928516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.542812333333334</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H6">
         <v>19.628437</v>
       </c>
       <c r="I6">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="J6">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7200953333333334</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N6">
-        <v>2.160286</v>
+        <v>0.343144</v>
       </c>
       <c r="O6">
-        <v>0.7373052671097876</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P6">
-        <v>0.7373052671097876</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q6">
-        <v>4.711448628109112</v>
+        <v>0.7483755984364444</v>
       </c>
       <c r="R6">
-        <v>42.40303765298201</v>
+        <v>6.735380385927999</v>
       </c>
       <c r="S6">
-        <v>0.238895190282333</v>
+        <v>0.04030777942725339</v>
       </c>
       <c r="T6">
-        <v>0.238895190282333</v>
+        <v>0.04030777942725339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.542812333333334</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H7">
         <v>19.628437</v>
       </c>
       <c r="I7">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="J7">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.02498966666666667</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N7">
-        <v>0.07496900000000001</v>
+        <v>2.160286</v>
       </c>
       <c r="O7">
-        <v>0.02558690773812063</v>
+        <v>0.8077233554817153</v>
       </c>
       <c r="P7">
-        <v>0.02558690773812063</v>
+        <v>0.8077233554817151</v>
       </c>
       <c r="Q7">
-        <v>0.1635026992725556</v>
+        <v>4.711448628109111</v>
       </c>
       <c r="R7">
-        <v>1.471524293453</v>
+        <v>42.403037652982</v>
       </c>
       <c r="S7">
-        <v>0.008290445580018674</v>
+        <v>0.2537603209958021</v>
       </c>
       <c r="T7">
-        <v>0.008290445580018674</v>
+        <v>0.2537603209958021</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.205681333333334</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H8">
-        <v>15.617044</v>
+        <v>19.628437</v>
       </c>
       <c r="I8">
-        <v>0.2577942255873873</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="J8">
-        <v>0.2577942255873872</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2315733333333333</v>
+        <v>0.03357866666666667</v>
       </c>
       <c r="N8">
-        <v>0.69472</v>
+        <v>0.100736</v>
       </c>
       <c r="O8">
-        <v>0.2371078251520917</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="P8">
-        <v>0.2371078251520917</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="Q8">
-        <v>1.205496978631111</v>
+        <v>0.2196989144035555</v>
       </c>
       <c r="R8">
-        <v>10.84947280768</v>
+        <v>1.977290229632</v>
       </c>
       <c r="S8">
-        <v>0.06112502816579311</v>
+        <v>0.01183306270365735</v>
       </c>
       <c r="T8">
-        <v>0.06112502816579311</v>
+        <v>0.01183306270365735</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.205681333333334</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H9">
-        <v>15.617044</v>
+        <v>19.628437</v>
       </c>
       <c r="I9">
-        <v>0.2577942255873873</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="J9">
-        <v>0.2577942255873872</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.7200953333333334</v>
+        <v>0.023457</v>
       </c>
       <c r="N9">
-        <v>2.160286</v>
+        <v>0.070371</v>
       </c>
       <c r="O9">
-        <v>0.7373052671097876</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="P9">
-        <v>0.7373052671097876</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="Q9">
-        <v>3.748586834953779</v>
+        <v>0.153474748903</v>
       </c>
       <c r="R9">
-        <v>33.73728151458401</v>
+        <v>1.381272740127</v>
       </c>
       <c r="S9">
-        <v>0.1900730403560694</v>
+        <v>0.008266205284298278</v>
       </c>
       <c r="T9">
-        <v>0.1900730403560694</v>
+        <v>0.008266205284298278</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.205681333333334</v>
+        <v>6.7998</v>
       </c>
       <c r="H10">
-        <v>15.617044</v>
+        <v>20.3994</v>
       </c>
       <c r="I10">
-        <v>0.2577942255873873</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="J10">
-        <v>0.2577942255873872</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,33 +1051,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.02498966666666667</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N10">
-        <v>0.07496900000000001</v>
+        <v>0.343144</v>
       </c>
       <c r="O10">
-        <v>0.02558690773812063</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P10">
-        <v>0.02558690773812063</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q10">
-        <v>0.1300882412928889</v>
+        <v>0.7777701904000001</v>
       </c>
       <c r="R10">
-        <v>1.170794171636</v>
+        <v>6.9999317136</v>
       </c>
       <c r="S10">
-        <v>0.006596157065524736</v>
+        <v>0.04189098274347126</v>
       </c>
       <c r="T10">
-        <v>0.006596157065524735</v>
+        <v>0.04189098274347126</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.959658333333334</v>
+        <v>6.7998</v>
       </c>
       <c r="H11">
-        <v>8.878975000000001</v>
+        <v>20.3994</v>
       </c>
       <c r="I11">
-        <v>0.1465673327253718</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="J11">
-        <v>0.1465673327253718</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2315733333333333</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N11">
-        <v>0.69472</v>
+        <v>2.160286</v>
       </c>
       <c r="O11">
-        <v>0.2371078251520917</v>
+        <v>0.8077233554817153</v>
       </c>
       <c r="P11">
-        <v>0.2371078251520917</v>
+        <v>0.8077233554817151</v>
       </c>
       <c r="Q11">
-        <v>0.6853779457777778</v>
+        <v>4.896504247600001</v>
       </c>
       <c r="R11">
-        <v>6.168401512</v>
+        <v>44.0685382284</v>
       </c>
       <c r="S11">
-        <v>0.03475226150085592</v>
+        <v>0.2637274833509039</v>
       </c>
       <c r="T11">
-        <v>0.03475226150085592</v>
+        <v>0.2637274833509038</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.959658333333334</v>
+        <v>6.7998</v>
       </c>
       <c r="H12">
-        <v>8.878975000000001</v>
+        <v>20.3994</v>
       </c>
       <c r="I12">
-        <v>0.1465673327253718</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="J12">
-        <v>0.1465673327253718</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.7200953333333334</v>
+        <v>0.03357866666666667</v>
       </c>
       <c r="N12">
-        <v>2.160286</v>
+        <v>0.100736</v>
       </c>
       <c r="O12">
-        <v>0.7373052671097876</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="P12">
-        <v>0.7373052671097876</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="Q12">
-        <v>2.131236154094445</v>
+        <v>0.2283282176</v>
       </c>
       <c r="R12">
-        <v>19.18112538685</v>
+        <v>2.0549539584</v>
       </c>
       <c r="S12">
-        <v>0.1080648664046494</v>
+        <v>0.01229784008359849</v>
       </c>
       <c r="T12">
-        <v>0.1080648664046494</v>
+        <v>0.01229784008359849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.959658333333334</v>
+        <v>6.7998</v>
       </c>
       <c r="H13">
-        <v>8.878975000000001</v>
+        <v>20.3994</v>
       </c>
       <c r="I13">
-        <v>0.1465673327253718</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="J13">
-        <v>0.1465673327253718</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,276 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02498966666666667</v>
+        <v>0.023457</v>
       </c>
       <c r="N13">
-        <v>0.07496900000000001</v>
+        <v>0.070371</v>
       </c>
       <c r="O13">
-        <v>0.02558690773812063</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="P13">
-        <v>0.02558690773812063</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="Q13">
-        <v>0.07396087519722223</v>
+        <v>0.1595029086</v>
       </c>
       <c r="R13">
-        <v>0.6656478767750001</v>
+        <v>1.4355261774</v>
       </c>
       <c r="S13">
-        <v>0.003750204819866518</v>
+        <v>0.00859088413797361</v>
       </c>
       <c r="T13">
-        <v>0.003750204819866518</v>
+        <v>0.008590884137973608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.427994</v>
+      </c>
+      <c r="H14">
+        <v>10.283982</v>
+      </c>
+      <c r="I14">
+        <v>0.164602589687921</v>
+      </c>
+      <c r="J14">
+        <v>0.164602589687921</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1143813333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.343144</v>
+      </c>
+      <c r="O14">
+        <v>0.128300337591142</v>
+      </c>
+      <c r="P14">
+        <v>0.1283003375911419</v>
+      </c>
+      <c r="Q14">
+        <v>0.3920985243786667</v>
+      </c>
+      <c r="R14">
+        <v>3.528886719408</v>
+      </c>
+      <c r="S14">
+        <v>0.02111856782533648</v>
+      </c>
+      <c r="T14">
+        <v>0.02111856782533648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.427994</v>
+      </c>
+      <c r="H15">
+        <v>10.283982</v>
+      </c>
+      <c r="I15">
+        <v>0.164602589687921</v>
+      </c>
+      <c r="J15">
+        <v>0.164602589687921</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7200953333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.160286</v>
+      </c>
+      <c r="O15">
+        <v>0.8077233554817153</v>
+      </c>
+      <c r="P15">
+        <v>0.8077233554817151</v>
+      </c>
+      <c r="Q15">
+        <v>2.468482482094667</v>
+      </c>
+      <c r="R15">
+        <v>22.216342338852</v>
+      </c>
+      <c r="S15">
+        <v>0.1329533560637075</v>
+      </c>
+      <c r="T15">
+        <v>0.1329533560637075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.427994</v>
+      </c>
+      <c r="H16">
+        <v>10.283982</v>
+      </c>
+      <c r="I16">
+        <v>0.164602589687921</v>
+      </c>
+      <c r="J16">
+        <v>0.164602589687921</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03357866666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.100736</v>
+      </c>
+      <c r="O16">
+        <v>0.03766483694187069</v>
+      </c>
+      <c r="P16">
+        <v>0.03766483694187069</v>
+      </c>
+      <c r="Q16">
+        <v>0.1151074678613333</v>
+      </c>
+      <c r="R16">
+        <v>1.035967210752</v>
+      </c>
+      <c r="S16">
+        <v>0.006199729700805189</v>
+      </c>
+      <c r="T16">
+        <v>0.006199729700805189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.427994</v>
+      </c>
+      <c r="H17">
+        <v>10.283982</v>
+      </c>
+      <c r="I17">
+        <v>0.164602589687921</v>
+      </c>
+      <c r="J17">
+        <v>0.164602589687921</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.023457</v>
+      </c>
+      <c r="N17">
+        <v>0.070371</v>
+      </c>
+      <c r="O17">
+        <v>0.02631146998527222</v>
+      </c>
+      <c r="P17">
+        <v>0.02631146998527222</v>
+      </c>
+      <c r="Q17">
+        <v>0.080410455258</v>
+      </c>
+      <c r="R17">
+        <v>0.7236940973220001</v>
+      </c>
+      <c r="S17">
+        <v>0.004330936098071812</v>
+      </c>
+      <c r="T17">
+        <v>0.004330936098071811</v>
       </c>
     </row>
   </sheetData>
